--- a/documentation/Design and Implementation/tests plans/Customer Testing Plan.xlsx
+++ b/documentation/Design and Implementation/tests plans/Customer Testing Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kv6003\documentation\Design and Implementation\tests plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DD1362-3F94-436F-B49D-92A40C118B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2888149E-AED4-43A9-B7E1-EA3C53AFD52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E251E338-631D-4CD7-853D-8CB7409F8A37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E251E338-631D-4CD7-853D-8CB7409F8A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F03642-4ED7-4A87-9B10-842D836A0F28}">
   <dimension ref="E8:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +734,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>